--- a/data/trans_dic/IP2002-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP2002-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,1; 15,52</t>
+          <t>4,63; 14,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,36; 17,08</t>
+          <t>5,04; 17,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 9,04</t>
+          <t>0,82; 7,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,68</t>
+          <t>0,0; 8,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 12,3</t>
+          <t>3,64; 13,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,46; 17,07</t>
+          <t>6,1; 17,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 13,67</t>
+          <t>2,04; 13,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,97</t>
+          <t>0,0; 8,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,07; 11,89</t>
+          <t>5,35; 12,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,98; 15,05</t>
+          <t>7,22; 15,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 8,88</t>
+          <t>2,18; 8,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,76</t>
+          <t>0,62; 5,89</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 9,66</t>
+          <t>5,69; 9,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,19</t>
+          <t>5,14; 9,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,36</t>
+          <t>3,44; 7,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,1</t>
+          <t>2,86; 6,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,69; 9,84</t>
+          <t>5,5; 10,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,91</t>
+          <t>3,52; 7,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,19</t>
+          <t>5,25; 9,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,43</t>
+          <t>3,65; 7,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,1; 9,05</t>
+          <t>6,12; 9,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 7,55</t>
+          <t>4,82; 7,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 7,58</t>
+          <t>4,75; 7,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,25</t>
+          <t>3,54; 6,09</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 10,31</t>
+          <t>3,15; 9,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 9,03</t>
+          <t>2,61; 8,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 8,07</t>
+          <t>2,29; 8,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,38; 11,74</t>
+          <t>4,54; 11,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 9,68</t>
+          <t>3,43; 9,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 7,05</t>
+          <t>1,72; 6,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 7,69</t>
+          <t>2,1; 8,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,47; 13,46</t>
+          <t>5,51; 14,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 8,29</t>
+          <t>4,08; 8,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,63</t>
+          <t>2,69; 6,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 7,23</t>
+          <t>2,8; 6,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 11,05</t>
+          <t>5,96; 11,41</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,76; 9,08</t>
+          <t>5,82; 8,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,78</t>
+          <t>5,52; 8,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,33</t>
+          <t>3,69; 6,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,46</t>
+          <t>3,48; 6,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,63; 8,9</t>
+          <t>5,55; 8,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,22; 7,27</t>
+          <t>4,32; 7,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,08</t>
+          <t>4,84; 7,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,61; 7,92</t>
+          <t>4,49; 7,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,37</t>
+          <t>6,18; 8,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,24; 7,4</t>
+          <t>5,12; 7,47</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,57; 6,63</t>
+          <t>4,48; 6,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,3; 6,54</t>
+          <t>4,43; 6,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2002-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP2002-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores a los que les han extraido dientes por caries o por otro motivo</t>
+          <t>Menores a los que les han extraído dientes por caries o por otro motivo</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,25%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>3,61; 12,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>6,58; 17,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,25; 13,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,75; 15,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,39; 18,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 7,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,0; 9,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>5,38; 12,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>7,14; 15,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,06; 8,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,64; 5,59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4,24%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7,49%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>6,03%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,59%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>8,13%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>10,74%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>4,34%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>4,76%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 14,92</t>
+          <t>5,68; 9,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,04; 17,6</t>
+          <t>3,54; 7,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,96</t>
+          <t>4,96; 9,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,31</t>
+          <t>3,59; 7,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,64; 13,01</t>
+          <t>5,63; 9,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 17,05</t>
+          <t>5,06; 9,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 13,1</t>
+          <t>3,56; 7,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,46</t>
+          <t>2,75; 6,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,35; 12,28</t>
+          <t>6,21; 9,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,22; 15,25</t>
+          <t>4,75; 7,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 8,58</t>
+          <t>4,83; 7,43</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,89</t>
+          <t>3,53; 6,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>8,55%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,69; 9,67</t>
+          <t>3,49; 9,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,35</t>
+          <t>1,74; 7,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 7,03</t>
+          <t>2,13; 7,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,21</t>
+          <t>5,89; 13,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,02</t>
+          <t>3,06; 9,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 7,08</t>
+          <t>2,71; 8,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,25; 9,46</t>
+          <t>2,32; 8,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 7,37</t>
+          <t>4,98; 13,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,12; 9,01</t>
+          <t>3,93; 8,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,41</t>
+          <t>2,6; 6,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 7,47</t>
+          <t>2,88; 6,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 6,09</t>
+          <t>6,16; 12,26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>5,45%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 9,99</t>
+          <t>5,56; 8,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 8,94</t>
+          <t>4,12; 6,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 8,34</t>
+          <t>4,76; 7,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,54; 11,39</t>
+          <t>4,36; 7,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 9,49</t>
+          <t>5,8; 8,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 6,91</t>
+          <t>5,47; 8,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 8,02</t>
+          <t>3,63; 6,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 14,24</t>
+          <t>3,66; 6,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 8,54</t>
+          <t>6,16; 8,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,58</t>
+          <t>5,22; 7,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,44</t>
+          <t>4,55; 6,56</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,41</t>
+          <t>4,4; 6,55</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>7,28%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,93%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,81%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,87%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>7,1%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>5,53%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>6,21%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,04%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>7,2%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>6,25%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>5,49%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>5,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>5,82; 8,95</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>5,52; 8,69</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>3,69; 6,31</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>3,48; 6,4</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>5,55; 8,85</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>4,32; 7,2</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>4,84; 7,87</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>4,49; 7,67</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>6,18; 8,49</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>5,12; 7,47</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>4,48; 6,65</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>4,43; 6,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
